--- a/Ringkasan Hasil Paper.xlsx
+++ b/Ringkasan Hasil Paper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT PAPER UGI 2025\PAPER JUDI ONLINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6C6E82-0FD7-43E9-BABB-D8660C0A2714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928128A2-7E51-44F2-92BC-B5D0900622B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>No</t>
   </si>
@@ -52,6 +52,33 @@
   </si>
   <si>
     <t>Legal</t>
+  </si>
+  <si>
+    <t>Sinta</t>
+  </si>
+  <si>
+    <t>Scopus</t>
+  </si>
+  <si>
+    <t>Link Artikel</t>
+  </si>
+  <si>
+    <t>Biaya</t>
+  </si>
+  <si>
+    <t>Frekuensi Publikasi</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Jumlah Responden</t>
+  </si>
+  <si>
+    <t>City /Country (Bisa Buat Peta)</t>
   </si>
 </sst>
 </file>
@@ -372,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H22:H23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,10 +413,19 @@
     <col min="4" max="4" width="45.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
     <col min="6" max="6" width="29" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="21.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31" style="1" customWidth="1"/>
+    <col min="15" max="15" width="47.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,18 +444,45 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
